--- a/Desafio2/Viuvos/Viuvos.xlsx
+++ b/Desafio2/Viuvos/Viuvos.xlsx
@@ -244,6 +244,22 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.76171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.24609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.69140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.6328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.671875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.39453125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.7890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.3125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="23.90625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="45.04296875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -334,266 +350,266 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="0" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="0" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="0" t="s">
         <v>59</v>
       </c>
     </row>
